--- a/02プロダクトバックログ/Scrum2_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum2_プロダクトバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD46E07A-357F-4210-8140-F63AE30BD063}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424303A6-ACD9-4EB5-A2E8-20594CEB365D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -127,6 +127,10 @@
   <si>
     <t>カレンダーを用いた予定を登録し、他のユーザーと共有するサイト
 ユーザーやその家族や友人が口頭やチャット以外の予定の確認手段としてカレンダー内に登録された予定を通知させグループ内にいるユーザー全員に内容を知らせるといった個人の予定表というよりグループで活用させる情報共有アプリのようなもの　を作ります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DaysShare</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -495,7 +499,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -517,6 +521,9 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="93.75">
       <c r="A3" s="4" t="s">
@@ -538,7 +545,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/02プロダクトバックログ/Scrum2_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum2_プロダクトバックログ.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424303A6-ACD9-4EB5-A2E8-20594CEB365D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05289ADD-0483-4726-A646-1BC17D9D350F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -85,16 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここに機能名を書く</t>
-    <rPh sb="3" eb="6">
-      <t>キノウメイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>特記事項があればここに書く</t>
     <rPh sb="0" eb="2">
       <t>トッキ</t>
@@ -108,19 +98,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここに機能の概要を書く</t>
-    <rPh sb="3" eb="5">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Scrum2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -131,6 +108,201 @@
   </si>
   <si>
     <t>DaysShare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ一覧追加</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定追加</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ、パスワードでログインする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後、直ぐに出て来る。登録済みの予定が一緒に表示される。
+グループの他のユーザと共有している予定も表示。</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>トウロクズ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分が所属してるグループを一覧表示</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録済みグループの一覧表示。
+グループ作成、修正、削除を行う。</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクズ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定のタイミングが近づいたら通知（スマホの通知機能のイメージ）</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ツウチキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザを登録（ユーザID、パスワード、メールアドレス、ニックネーム）</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定表示</t>
+    <rPh sb="0" eb="4">
+      <t>ヨテイヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーに登録されている予定をクリックすると表示される</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定を追加（日時、タイトル、内容、重要度）</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ジュウヨウド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -514,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -522,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="93.75">
@@ -530,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -544,9 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -576,81 +746,125 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>8</v>
+      </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">

--- a/02プロダクトバックログ/Scrum2_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum2_プロダクトバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05289ADD-0483-4726-A646-1BC17D9D350F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5B639E-7C31-40E4-A527-DF8E2A7CFBDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -302,6 +302,36 @@
     </rPh>
     <rPh sb="17" eb="20">
       <t>ジュウヨウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2スプリントで実装済み</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ジッソウズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第１スプリントで実装済み</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ジッソウズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2未実装</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ミジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -333,7 +363,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +373,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -387,6 +423,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,7 +755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -775,7 +816,9 @@
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="1">
@@ -790,7 +833,9 @@
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="1">
@@ -805,7 +850,9 @@
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="1">
@@ -835,7 +882,9 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1">
@@ -865,7 +914,9 @@
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="1"/>

--- a/02プロダクトバックログ/Scrum2_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum2_プロダクトバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5B639E-7C31-40E4-A527-DF8E2A7CFBDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D47E251-AC03-4B95-B4FB-A5BE937CA2F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -332,6 +332,20 @@
     </rPh>
     <rPh sb="2" eb="5">
       <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3スプリント</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余裕があれば</t>
+    <rPh sb="0" eb="2">
+      <t>ヨユウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -755,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -867,7 +881,9 @@
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1">
@@ -899,7 +915,9 @@
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="1">
